--- a/hello world.xlsx
+++ b/hello world.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
-  <si>
-    <t>PAGO SEMANAL DEL 23 DE JULIO AL 06 DE AGOSTO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+  <si>
+    <t>PAGO DEL 04 DE JULIO AL 08 DE JULIO DEL 2022</t>
+  </si>
+  <si>
+    <t>PAGO DEL 11 DE JULIO AL 15 DE JULIO DEL 2022</t>
   </si>
   <si>
     <t>SUELDO 1 4%</t>
@@ -51,6 +54,48 @@
   </si>
   <si>
     <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>id EMP : 36</t>
+  </si>
+  <si>
+    <t>Anai Rojas Sanchez</t>
+  </si>
+  <si>
+    <t>id EMP : 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo Lopez Franco </t>
+  </si>
+  <si>
+    <t>id EMP : 45</t>
+  </si>
+  <si>
+    <t>Genaro Gonzalez Garnica</t>
+  </si>
+  <si>
+    <t>id EMP : 20</t>
+  </si>
+  <si>
+    <t>Hipolito Amado Reyes</t>
+  </si>
+  <si>
+    <t>id EMP : 35</t>
+  </si>
+  <si>
+    <t>Jose Justo Rojas Orozco</t>
+  </si>
+  <si>
+    <t>id EMP : 3</t>
+  </si>
+  <si>
+    <t>Miguel Angel Mendoza Cruz</t>
+  </si>
+  <si>
+    <t>id EMP : 4</t>
+  </si>
+  <si>
+    <t>Viviano Aguilar Hernandez</t>
   </si>
 </sst>
 </file>
@@ -422,62 +467,205 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1545.12</v>
+      </c>
+      <c r="E3">
+        <v>77.26</v>
+      </c>
+      <c r="F3">
+        <v>0.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1567.2</v>
+      </c>
+      <c r="E4">
+        <v>78.36</v>
+      </c>
+      <c r="F4">
+        <v>1703.04</v>
+      </c>
+      <c r="G4">
+        <v>85.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1901.32</v>
+      </c>
+      <c r="E5">
+        <v>95.07</v>
+      </c>
+      <c r="F5">
+        <v>1061.44</v>
+      </c>
+      <c r="G5">
+        <v>53.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1334.06</v>
+      </c>
+      <c r="E6">
+        <v>66.7</v>
+      </c>
+      <c r="F6">
+        <v>1419.5</v>
+      </c>
+      <c r="G6">
+        <v>70.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1678.0</v>
+      </c>
+      <c r="E7">
+        <v>83.9</v>
+      </c>
+      <c r="F7">
+        <v>1499.0</v>
+      </c>
+      <c r="G7">
+        <v>74.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1263.0</v>
+      </c>
+      <c r="E8">
+        <v>63.15</v>
+      </c>
+      <c r="F8">
+        <v>2161.36</v>
+      </c>
+      <c r="G8">
+        <v>108.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="D9" s="1"/>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2193.3</v>
+      </c>
+      <c r="E9">
+        <v>109.67</v>
+      </c>
+      <c r="F9">
+        <v>2057.78</v>
+      </c>
+      <c r="G9">
+        <v>102.89</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="D10" s="1"/>
